--- a/biology/Neurosciences/Trigone_olfactif/Trigone_olfactif.xlsx
+++ b/biology/Neurosciences/Trigone_olfactif/Trigone_olfactif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trigone olfactif (en latin : trigonum olfactorium) est une petite zone triangulaire située devant l'espace perforé antérieur.
 Son sommet, dirigé vers l'avant, occupe la partie postérieure du sillon olfactif, et apparaît en rejetant le tractus olfactif.
-Il fait partie de la voie olfactive[1].
+Il fait partie de la voie olfactive.
 </t>
         </is>
       </c>
